--- a/data/input/absenteeism_data_15.xlsx
+++ b/data/input/absenteeism_data_15.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>39760</v>
+        <v>9616</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luiz Henrique Araújo</t>
+          <t>Ana Clara da Mata</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45081</v>
+        <v>45096</v>
       </c>
       <c r="G2" t="n">
-        <v>9192.43</v>
+        <v>4293.36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>83447</v>
+        <v>9089</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agatha Nunes</t>
+          <t>Sr. Breno da Cruz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,60 +519,60 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45078</v>
+        <v>45101</v>
       </c>
       <c r="G3" t="n">
-        <v>8593.889999999999</v>
+        <v>6215.63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>72527</v>
+        <v>8688</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Souza</t>
+          <t>João Vitor da Cruz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45102</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>6653.29</v>
+        <v>3428.81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16387</v>
+        <v>66936</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Laura Rezende</t>
+          <t>João Vitor Moreira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,82 +584,82 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45102</v>
+        <v>45097</v>
       </c>
       <c r="G5" t="n">
-        <v>5064.33</v>
+        <v>8613.110000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12013</v>
+        <v>30967</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr. Thales Carvalho</t>
+          <t>Laura Costela</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45086</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>3074.97</v>
+        <v>8971.34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>89270</v>
+        <v>26806</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alana Teixeira</t>
+          <t>Nina Ramos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="G7" t="n">
-        <v>11193.01</v>
+        <v>6677.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>27292</v>
+        <v>96308</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Leonardo Fernandes</t>
+          <t>Rafael Araújo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45096</v>
+        <v>45089</v>
       </c>
       <c r="G8" t="n">
-        <v>8576.92</v>
+        <v>12273.34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>78594</v>
+        <v>28965</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Yasmin Costela</t>
+          <t>Eduardo Ferreira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45090</v>
       </c>
       <c r="G9" t="n">
-        <v>4953.56</v>
+        <v>11810.61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20003</v>
+        <v>84225</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sr. Kevin Viana</t>
+          <t>Daniela Lima</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>6413.68</v>
+        <v>7894.42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12761</v>
+        <v>27844</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Julia Pereira</t>
+          <t>Luiz Henrique Rocha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45090</v>
+        <v>45079</v>
       </c>
       <c r="G11" t="n">
-        <v>9319.290000000001</v>
+        <v>10670.1</v>
       </c>
     </row>
   </sheetData>
